--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -601,7 +601,7 @@
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>MedicationStatement.medicationCodeableConcept.id</t>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="520">
   <si>
     <t>Path</t>
   </si>
@@ -378,6 +378,9 @@
     <t>Medication Brand Name</t>
   </si>
   <si>
+    <t>The brand medication text name for an associated medication, this may be supplied if a coded brand name is not available for medicationCodeableConcept but the brand name is needed.</t>
+  </si>
+  <si>
     <t>genericName</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>Medication Generic Drug Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept. </t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -1220,6 +1226,422 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals"</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals".</t>
+  </si>
+  <si>
+    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>snomedAdditionalInstruction</t>
+  </si>
+  <si>
+    <t>SNOMED CT Additional Instruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>asNeededCoding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Reason For Take "as needed"</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.coding</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.text</t>
+  </si>
+  <si>
+    <t>snomedRoute</t>
+  </si>
+  <si>
+    <t>Route of Administration (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.text</t>
+  </si>
+  <si>
+    <t>snomedMethod</t>
+  </si>
+  <si>
+    <t>SNOMED CT Administration Method</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AM111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1378,7 +1800,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1400,10 +1822,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -2563,7 +2985,7 @@
         <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2646,7 +3068,7 @@
         <v>95</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2668,13 +3090,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2754,11 +3176,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2780,13 +3202,13 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2836,7 +3258,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2865,7 +3287,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2888,13 +3310,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2945,7 +3367,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2960,13 +3382,13 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2974,7 +3396,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2997,17 +3419,17 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3056,7 +3478,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3071,10 +3493,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3085,7 +3507,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3108,17 +3530,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3167,7 +3589,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3182,10 +3604,10 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3196,7 +3618,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3219,13 +3641,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3276,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3291,10 +3713,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3305,7 +3727,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3331,13 +3753,13 @@
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3363,13 +3785,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3387,7 +3809,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>51</v>
@@ -3402,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3416,7 +3838,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3439,13 +3861,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3472,13 +3894,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3496,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3514,10 +3936,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3525,10 +3947,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
@@ -3550,16 +3972,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3609,7 +4031,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>51</v>
@@ -3624,13 +4046,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3638,10 +4060,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3663,16 +4085,16 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3698,13 +4120,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3722,7 +4144,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3734,16 +4156,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3751,7 +4173,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3774,13 +4196,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3831,7 +4253,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3849,7 +4271,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3860,11 +4282,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3886,13 +4308,13 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3933,7 +4355,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -3942,7 +4364,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3960,7 +4382,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3971,7 +4393,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3994,19 +4416,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4043,7 +4465,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4053,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4071,21 +4493,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4107,19 +4529,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4144,11 +4566,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4166,7 +4588,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4184,21 +4606,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4220,19 +4642,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4257,11 +4679,11 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4279,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4297,21 +4719,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4333,19 +4755,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4370,11 +4792,11 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4392,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4410,18 +4832,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4444,13 +4866,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4501,7 +4923,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4519,7 +4941,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4530,7 +4952,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4601,7 +5023,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -4610,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4639,10 +5061,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -4664,13 +5086,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4721,7 +5143,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4750,7 +5172,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4773,13 +5195,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4830,7 +5252,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4848,7 +5270,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4859,11 +5281,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4885,13 +5307,13 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4932,7 +5354,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -4941,7 +5363,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4959,7 +5381,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4970,7 +5392,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4996,13 +5418,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5010,7 +5432,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5052,7 +5474,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5081,10 +5503,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
@@ -5106,13 +5528,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5121,7 +5543,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5139,13 +5561,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5163,7 +5585,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5192,7 +5614,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5218,16 +5640,16 @@
         <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5276,7 +5698,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5294,18 +5716,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5328,16 +5750,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5387,7 +5809,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5405,18 +5827,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5442,14 +5864,14 @@
         <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5498,7 +5920,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5516,18 +5938,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5550,17 +5972,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5609,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5627,18 +6049,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5661,19 +6083,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5722,7 +6144,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5740,21 +6162,21 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
@@ -5776,19 +6198,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5813,11 +6235,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5835,7 +6257,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5853,18 +6275,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5887,19 +6309,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5948,7 +6370,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5966,21 +6388,21 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
@@ -6002,16 +6424,16 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6061,7 +6483,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>51</v>
@@ -6076,13 +6498,13 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6090,7 +6512,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6113,16 +6535,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6172,7 +6594,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6187,13 +6609,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6201,7 +6623,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6224,13 +6646,13 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6281,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6299,10 +6721,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6310,7 +6732,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6333,13 +6755,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6390,7 +6812,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6408,10 +6830,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6419,7 +6841,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6442,13 +6864,13 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6499,7 +6921,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>51</v>
@@ -6514,21 +6936,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6551,16 +6973,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6610,7 +7032,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6628,7 +7050,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6639,7 +7061,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6665,13 +7087,13 @@
         <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6697,13 +7119,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6721,7 +7143,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6736,10 +7158,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6750,7 +7172,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6773,13 +7195,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6806,13 +7228,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6830,7 +7252,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6839,7 +7261,7 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -6848,7 +7270,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6859,7 +7281,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6882,13 +7304,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6939,7 +7361,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6957,7 +7379,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6968,11 +7390,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6994,13 +7416,13 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7041,7 +7463,7 @@
         <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
@@ -7050,7 +7472,7 @@
         <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7068,7 +7490,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7079,7 +7501,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7102,19 +7524,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7151,7 +7573,7 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7161,7 +7583,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7179,21 +7601,21 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
@@ -7215,19 +7637,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7252,11 +7674,11 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7274,7 +7696,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7292,18 +7714,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7326,19 +7748,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7387,7 +7809,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7405,18 +7827,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7439,16 +7861,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7474,13 +7896,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7498,7 +7920,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7513,13 +7935,13 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7527,7 +7949,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7550,13 +7972,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7607,7 +8029,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7625,7 +8047,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7636,11 +8058,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7662,13 +8084,13 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7709,7 +8131,7 @@
         <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
@@ -7718,7 +8140,7 @@
         <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7736,7 +8158,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7747,7 +8169,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7770,19 +8192,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7819,7 +8241,7 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -7829,7 +8251,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7847,21 +8269,21 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
@@ -7883,19 +8305,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7920,11 +8342,11 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7942,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7960,18 +8382,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7994,19 +8416,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8055,7 +8477,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8073,18 +8495,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8107,16 +8529,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8166,7 +8588,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8181,13 +8603,13 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8195,7 +8617,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8218,13 +8640,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8275,7 +8697,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8290,10 +8712,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8304,7 +8726,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8327,16 +8749,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8386,7 +8808,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8398,23 +8820,5363 @@
         <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AB90" s="2"/>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X95" s="2"/>
+      <c r="Y95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AB100" s="2"/>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AB104" s="2"/>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X105" s="2"/>
+      <c r="Y105" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM63">
+  <autoFilter ref="A1:AM111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8424,7 +14186,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -1222,7 +1222,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-mst-01:The dosage shall at least have text or patient instructions {MedicationStatement.dosage.text.exists() or MedicationStatement.dosage.patientInstruction.exists()}</t>
+inv-dh-mst-01:The dosage shall at least have text or patient instructions {dosage.text.exists() or dosage.patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -1222,7 +1222,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-mst-01:The dosage shall at least have text or patient instructions {dosage.text.exists() or dosage.patientInstruction.exists()}</t>
+inv-dh-mst-01:The dosage shall at least have text or patient instructions {text.exists() or patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="521">
   <si>
     <t>Path</t>
   </si>
@@ -563,7 +563,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-known-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
 </t>
   </si>
   <si>
@@ -1009,6 +1009,10 @@
   </si>
   <si>
     <t>The person, animal or group who is/was taking the medication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-dh-mst-02:The subject shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
+</t>
   </si>
   <si>
     <t>…subject</t>
@@ -6933,24 +6937,24 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6973,16 +6977,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7032,7 +7036,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7050,7 +7054,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -7061,7 +7065,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7087,13 +7091,13 @@
         <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7122,10 +7126,10 @@
         <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -7143,7 +7147,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7158,10 +7162,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7172,7 +7176,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7198,10 +7202,10 @@
         <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7231,10 +7235,10 @@
         <v>181</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7252,7 +7256,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7261,7 +7265,7 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -7270,7 +7274,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7281,7 +7285,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7390,7 +7394,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7501,7 +7505,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7527,7 +7531,7 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>199</v>
@@ -7573,7 +7577,7 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7612,10 +7616,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
@@ -7640,7 +7644,7 @@
         <v>197</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>199</v>
@@ -7678,7 +7682,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7725,7 +7729,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7838,7 +7842,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7864,13 +7868,13 @@
         <v>160</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7899,10 +7903,10 @@
         <v>181</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7920,7 +7924,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7935,13 +7939,13 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7949,7 +7953,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8058,7 +8062,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8169,7 +8173,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8195,7 +8199,7 @@
         <v>197</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>199</v>
@@ -8241,7 +8245,7 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -8280,10 +8284,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
@@ -8308,7 +8312,7 @@
         <v>197</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>199</v>
@@ -8346,7 +8350,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -8393,7 +8397,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8506,7 +8510,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8529,16 +8533,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8588,7 +8592,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8603,13 +8607,13 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8617,7 +8621,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8640,13 +8644,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8697,7 +8701,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8712,10 +8716,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8726,7 +8730,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8749,16 +8753,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8808,7 +8812,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8820,13 +8824,13 @@
         <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8837,7 +8841,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8946,7 +8950,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9057,7 +9061,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9080,17 +9084,17 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -9139,7 +9143,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9157,7 +9161,7 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -9168,7 +9172,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9194,14 +9198,14 @@
         <v>186</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -9250,7 +9254,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9268,7 +9272,7 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -9279,7 +9283,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9305,14 +9309,14 @@
         <v>160</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9340,16 +9344,16 @@
         <v>181</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
@@ -9359,7 +9363,7 @@
         <v>100</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9377,7 +9381,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9388,10 +9392,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>40</v>
@@ -9416,14 +9420,14 @@
         <v>160</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9452,7 +9456,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9470,7 +9474,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9488,7 +9492,7 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9499,7 +9503,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9525,10 +9529,10 @@
         <v>186</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9579,7 +9583,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9597,7 +9601,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9608,7 +9612,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9631,19 +9635,19 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9692,7 +9696,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9721,7 +9725,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9744,16 +9748,16 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9782,10 +9786,10 @@
         <v>181</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9803,7 +9807,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9821,7 +9825,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9832,10 +9836,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>40</v>
@@ -9857,16 +9861,16 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9895,10 +9899,10 @@
         <v>181</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>40</v>
@@ -9916,7 +9920,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9934,7 +9938,7 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9945,7 +9949,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10054,7 +10058,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10161,10 +10165,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>40</v>
@@ -10189,13 +10193,13 @@
         <v>160</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10224,10 +10228,10 @@
         <v>181</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -10245,7 +10249,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10263,7 +10267,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10274,7 +10278,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10383,7 +10387,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10494,7 +10498,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10520,7 +10524,7 @@
         <v>197</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>199</v>
@@ -10566,7 +10570,7 @@
         <v>40</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
@@ -10605,10 +10609,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>40</v>
@@ -10633,7 +10637,7 @@
         <v>197</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>199</v>
@@ -10671,7 +10675,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10718,7 +10722,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10831,7 +10835,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10857,16 +10861,16 @@
         <v>160</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10894,10 +10898,10 @@
         <v>181</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10915,7 +10919,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10933,7 +10937,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10944,7 +10948,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11053,7 +11057,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11164,7 +11168,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11190,7 +11194,7 @@
         <v>197</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>199</v>
@@ -11228,7 +11232,7 @@
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -11275,7 +11279,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11388,7 +11392,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11414,14 +11418,14 @@
         <v>160</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11449,10 +11453,10 @@
         <v>181</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>40</v>
@@ -11470,7 +11474,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11488,7 +11492,7 @@
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
@@ -11499,7 +11503,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11608,7 +11612,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11719,7 +11723,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11745,7 +11749,7 @@
         <v>197</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>199</v>
@@ -11791,7 +11795,7 @@
         <v>40</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB90" s="2"/>
       <c r="AC90" t="s" s="2">
@@ -11830,7 +11834,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11943,7 +11947,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12052,7 +12056,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12163,7 +12167,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12189,7 +12193,7 @@
         <v>197</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>199</v>
@@ -12235,7 +12239,7 @@
         <v>40</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
@@ -12274,10 +12278,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>40</v>
@@ -12302,7 +12306,7 @@
         <v>197</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>199</v>
@@ -12340,7 +12344,7 @@
       </c>
       <c r="X95" s="2"/>
       <c r="Y95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>40</v>
@@ -12387,7 +12391,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12500,7 +12504,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12526,16 +12530,16 @@
         <v>160</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12563,10 +12567,10 @@
         <v>181</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>40</v>
@@ -12584,7 +12588,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12602,7 +12606,7 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
@@ -12613,7 +12617,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12722,7 +12726,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12833,7 +12837,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12859,7 +12863,7 @@
         <v>197</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>199</v>
@@ -12905,7 +12909,7 @@
         <v>40</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB100" s="2"/>
       <c r="AC100" t="s" s="2">
@@ -12944,7 +12948,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13057,7 +13061,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13166,7 +13170,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13277,7 +13281,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13303,7 +13307,7 @@
         <v>197</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>199</v>
@@ -13349,7 +13353,7 @@
         <v>40</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB104" s="2"/>
       <c r="AC104" t="s" s="2">
@@ -13388,10 +13392,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>40</v>
@@ -13416,7 +13420,7 @@
         <v>197</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>199</v>
@@ -13454,7 +13458,7 @@
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
@@ -13501,7 +13505,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13614,7 +13618,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13637,19 +13641,19 @@
         <v>52</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>40</v>
@@ -13698,7 +13702,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13716,7 +13720,7 @@
         <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
@@ -13727,7 +13731,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13750,19 +13754,19 @@
         <v>52</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13811,7 +13815,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13829,7 +13833,7 @@
         <v>40</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>40</v>
@@ -13840,7 +13844,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13863,19 +13867,19 @@
         <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
@@ -13924,7 +13928,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13942,7 +13946,7 @@
         <v>40</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>40</v>
@@ -13953,7 +13957,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13976,17 +13980,17 @@
         <v>52</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -14035,7 +14039,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -14053,7 +14057,7 @@
         <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>40</v>
@@ -14064,7 +14068,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14087,19 +14091,19 @@
         <v>52</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>40</v>
@@ -14148,7 +14152,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -14166,7 +14170,7 @@
         <v>40</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>40</v>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -557,7 +557,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationReference</t>
+    <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
     <t>…code</t>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationReference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
@@ -4035,28 +4035,28 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -4092,7 +4092,7 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>172</v>
@@ -4124,52 +4124,52 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AJ21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4200,13 +4200,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4257,25 +4257,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4312,10 +4312,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>120</v>
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -4368,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4386,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4420,19 +4420,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4469,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4479,7 +4479,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4497,21 +4497,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4533,19 +4533,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="M25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4592,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4610,21 +4610,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4646,19 +4646,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4705,7 +4705,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4723,21 +4723,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4759,19 +4759,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4818,7 +4818,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4836,18 +4836,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4870,13 +4870,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4927,25 +4927,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,7 +5027,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -5036,7 +5036,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -5090,13 +5090,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5147,7 +5147,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5199,13 +5199,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5256,25 +5256,25 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5311,10 +5311,10 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>120</v>
@@ -5358,7 +5358,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -5367,7 +5367,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5385,7 +5385,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5422,13 +5422,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5436,49 +5436,49 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
@@ -5532,13 +5532,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5568,28 +5568,28 @@
         <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5644,16 +5644,16 @@
         <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5702,36 +5702,36 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5754,16 +5754,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5813,36 +5813,36 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5868,14 +5868,14 @@
         <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5924,36 +5924,36 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5976,17 +5976,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -6035,36 +6035,36 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6087,19 +6087,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6148,39 +6148,39 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
@@ -6202,19 +6202,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -6261,7 +6261,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6279,18 +6279,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6313,19 +6313,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6374,36 +6374,36 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>169</v>
@@ -6487,28 +6487,28 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -7232,7 +7232,7 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>336</v>
@@ -7308,13 +7308,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7365,25 +7365,25 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7420,10 +7420,10 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>120</v>
@@ -7467,7 +7467,7 @@
         <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
@@ -7476,7 +7476,7 @@
         <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7494,7 +7494,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7528,19 +7528,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7587,7 +7587,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7605,13 +7605,13 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7641,19 +7641,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7700,7 +7700,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7718,13 +7718,13 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -7752,19 +7752,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7813,31 +7813,31 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="55">
@@ -7900,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X55" t="s" s="2">
         <v>353</v>
@@ -7976,13 +7976,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8033,25 +8033,25 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -8088,10 +8088,10 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>120</v>
@@ -8135,7 +8135,7 @@
         <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
@@ -8144,7 +8144,7 @@
         <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8162,7 +8162,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -8196,19 +8196,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8255,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8273,13 +8273,13 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8309,19 +8309,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8368,7 +8368,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8386,13 +8386,13 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8420,19 +8420,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8481,31 +8481,31 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8864,13 +8864,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8921,25 +8921,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8976,10 +8976,10 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>120</v>
@@ -9023,7 +9023,7 @@
         <v>99</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>40</v>
@@ -9032,7 +9032,7 @@
         <v>100</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9050,7 +9050,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -9195,7 +9195,7 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>395</v>
@@ -9341,7 +9341,7 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X68" t="s" s="2">
         <v>403</v>
@@ -9526,7 +9526,7 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>410</v>
@@ -9783,7 +9783,7 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>425</v>
@@ -9896,7 +9896,7 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>425</v>
@@ -9972,13 +9972,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10029,25 +10029,25 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10084,10 +10084,10 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>120</v>
@@ -10131,7 +10131,7 @@
         <v>99</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>40</v>
@@ -10154,7 +10154,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -10225,7 +10225,7 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>425</v>
@@ -10301,13 +10301,13 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10358,25 +10358,25 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -10413,10 +10413,10 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>120</v>
@@ -10460,7 +10460,7 @@
         <v>99</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>40</v>
@@ -10469,7 +10469,7 @@
         <v>100</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10487,7 +10487,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10521,19 +10521,19 @@
         <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10580,7 +10580,7 @@
         <v>100</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10598,13 +10598,13 @@
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -10634,19 +10634,19 @@
         <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>438</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10693,7 +10693,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10711,13 +10711,13 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -10745,19 +10745,19 @@
         <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10806,31 +10806,31 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -10895,7 +10895,7 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X82" t="s" s="2">
         <v>446</v>
@@ -10971,13 +10971,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11028,25 +11028,25 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -11083,10 +11083,10 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>120</v>
@@ -11130,7 +11130,7 @@
         <v>99</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
@@ -11139,7 +11139,7 @@
         <v>100</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11157,7 +11157,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -11191,19 +11191,19 @@
         <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11250,7 +11250,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11268,13 +11268,13 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -11302,19 +11302,19 @@
         <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11363,31 +11363,31 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -11450,7 +11450,7 @@
         <v>40</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X87" t="s" s="2">
         <v>459</v>
@@ -11526,13 +11526,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11583,25 +11583,25 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
@@ -11638,10 +11638,10 @@
         <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>120</v>
@@ -11685,7 +11685,7 @@
         <v>99</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>40</v>
@@ -11694,7 +11694,7 @@
         <v>100</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11712,7 +11712,7 @@
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -11746,19 +11746,19 @@
         <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11805,7 +11805,7 @@
         <v>100</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11823,13 +11823,13 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -11857,19 +11857,19 @@
         <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11918,31 +11918,31 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="92" hidden="true">
@@ -11970,13 +11970,13 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12027,25 +12027,25 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
@@ -12082,10 +12082,10 @@
         <v>96</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>120</v>
@@ -12129,7 +12129,7 @@
         <v>99</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>40</v>
@@ -12138,7 +12138,7 @@
         <v>100</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12156,7 +12156,7 @@
         <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
@@ -12190,19 +12190,19 @@
         <v>52</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -12249,7 +12249,7 @@
         <v>100</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12267,13 +12267,13 @@
         <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="95" hidden="true">
@@ -12303,19 +12303,19 @@
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>468</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12362,7 +12362,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12380,13 +12380,13 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="96" hidden="true">
@@ -12414,19 +12414,19 @@
         <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>40</v>
@@ -12475,31 +12475,31 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -12564,7 +12564,7 @@
         <v>40</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X97" t="s" s="2">
         <v>475</v>
@@ -12640,13 +12640,13 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12697,25 +12697,25 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12752,10 +12752,10 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>120</v>
@@ -12799,7 +12799,7 @@
         <v>99</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>40</v>
@@ -12808,7 +12808,7 @@
         <v>100</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12826,7 +12826,7 @@
         <v>40</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>40</v>
@@ -12860,19 +12860,19 @@
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12919,7 +12919,7 @@
         <v>100</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12937,13 +12937,13 @@
         <v>40</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="101" hidden="true">
@@ -12971,19 +12971,19 @@
         <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>40</v>
@@ -13032,31 +13032,31 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="102" hidden="true">
@@ -13084,13 +13084,13 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13141,25 +13141,25 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -13196,10 +13196,10 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>120</v>
@@ -13243,7 +13243,7 @@
         <v>99</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>40</v>
@@ -13252,7 +13252,7 @@
         <v>100</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13270,7 +13270,7 @@
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13304,19 +13304,19 @@
         <v>52</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>343</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -13363,7 +13363,7 @@
         <v>100</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13381,13 +13381,13 @@
         <v>40</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="105" hidden="true">
@@ -13417,19 +13417,19 @@
         <v>52</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>484</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>40</v>
@@ -13476,7 +13476,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13494,13 +13494,13 @@
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -13528,19 +13528,19 @@
         <v>52</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13589,31 +13589,31 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="107" hidden="true">

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="385">
   <si>
     <t>Path</t>
   </si>
@@ -560,20 +560,33 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>Medication Detail</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the substance or product being taken.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
 </t>
   </si>
   <si>
-    <t>Medication Detail</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+    <t>closed</t>
   </si>
   <si>
     <t>…code</t>
@@ -585,29 +598,17 @@
     <t>what</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCoded</t>
+    <t>medicationCodeableConcept</t>
   </si>
   <si>
     <t>Coded Medication</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the substance or product being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.id</t>
+    <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -626,7 +627,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.extension</t>
+    <t>MedicationStatement.medication[x].extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -641,7 +642,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding</t>
+    <t>MedicationStatement.medication[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -706,10 +707,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -725,13 +726,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
+    <t>MedicationStatement.medication[x].coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -749,16 +750,19 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -774,10 +778,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
+    <t>MedicationStatement.medication[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -801,7 +802,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
+    <t>MedicationStatement.medication[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -822,7 +823,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
+    <t>MedicationStatement.medication[x].coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -843,7 +844,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
+    <t>MedicationStatement.medication[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -864,7 +865,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -901,7 +902,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.text</t>
+    <t>MedicationStatement.medication[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -925,10 +926,10 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
 </t>
   </si>
   <si>
@@ -1230,422 +1231,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals"</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals".</t>
-  </si>
-  <si>
-    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>snomedAdditionalInstruction</t>
-  </si>
-  <si>
-    <t>SNOMED CT Additional Instruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
-</t>
-  </si>
-  <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>asNeededCoding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Reason For Take "as needed"</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.text</t>
-  </si>
-  <si>
-    <t>snomedRoute</t>
-  </si>
-  <si>
-    <t>Route of Administration (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.text</t>
-  </si>
-  <si>
-    <t>snomedMethod</t>
-  </si>
-  <si>
-    <t>SNOMED CT Administration Method</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM111"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1803,8 +1388,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1826,10 +1411,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3949,13 +3534,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3967,7 +3550,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3976,16 +3559,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4011,28 +3594,26 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -4050,13 +3631,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4064,10 +3645,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -4092,13 +3673,13 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4124,13 +3705,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -4163,13 +3744,13 @@
         <v>183</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -5509,15 +5090,13 @@
       <c r="A34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5535,10 +5114,10 @@
         <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5547,7 +5126,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5565,31 +5144,29 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5618,15 +5195,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5638,29 +5217,25 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5678,13 +5253,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5702,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5720,18 +5295,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5754,18 +5329,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5813,7 +5390,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5831,18 +5408,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5865,18 +5442,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5924,7 +5501,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5942,18 +5519,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5976,17 +5553,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -6035,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6053,18 +5630,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6087,19 +5664,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6148,7 +5723,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6166,22 +5741,20 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6202,19 +5775,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6239,11 +5812,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -6261,13 +5836,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -6279,20 +5854,22 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>204</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6313,19 +5890,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6350,13 +5927,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6374,13 +5949,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6392,28 +5967,26 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6428,18 +6001,20 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6487,10 +6062,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6502,29 +6077,31 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6539,16 +6116,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6598,10 +6175,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6613,13 +6190,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6627,7 +6204,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6650,15 +6227,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6707,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6722,13 +6301,13 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6736,7 +6315,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6756,16 +6335,16 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6816,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6834,10 +6413,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6845,7 +6424,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,7 +6432,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6865,16 +6444,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6925,10 +6504,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6937,24 +6516,24 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6962,32 +6541,30 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -7036,36 +6613,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7073,31 +6650,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7123,13 +6700,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -7147,13 +6724,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -7162,10 +6739,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7176,7 +6753,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,30 +6761,32 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7232,13 +6811,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7256,36 +6835,36 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7296,10 +6875,10 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7308,13 +6887,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7341,13 +6920,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7365,16 +6944,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -7383,7 +6962,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7394,18 +6973,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7417,17 +6996,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7464,25 +7041,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7505,11 +7082,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7525,23 +7102,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7577,9 +7152,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7587,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7605,22 +7182,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7629,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7644,7 +7219,7 @@
         <v>196</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>198</v>
@@ -7678,26 +7253,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>202</v>
@@ -7729,9 +7304,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7752,19 +7329,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7789,13 +7366,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7813,13 +7388,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7831,18 +7406,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7853,30 +7428,32 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7900,13 +7477,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7924,36 +7501,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7964,10 +7541,10 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7976,15 +7553,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -8009,13 +7588,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -8033,13 +7612,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -8048,13 +7627,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -8062,18 +7641,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -8085,17 +7664,15 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -8132,25 +7709,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -8173,11 +7750,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8193,23 +7770,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8245,9 +7820,11 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8255,7 +7832,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8273,22 +7850,20 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8297,7 +7872,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -8312,7 +7887,7 @@
         <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>198</v>
@@ -8346,26 +7921,26 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>202</v>
@@ -8397,9 +7972,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8420,19 +7997,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8457,13 +8034,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8481,13 +8056,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8499,18 +8074,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8521,7 +8096,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8530,21 +8105,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>366</v>
+        <v>185</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8592,36 +8169,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8635,7 +8212,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8644,15 +8221,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8701,7 +8280,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8716,13 +8295,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8730,7 +8309,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8738,7 +8317,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>42</v>
@@ -8753,17 +8332,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8812,7 +8389,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8821,16 +8398,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8839,9 +8416,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8849,13 +8426,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8864,15 +8441,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8921,5266 +8500,35 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB90" s="2"/>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB94" s="2"/>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB100" s="2"/>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB104" s="2"/>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X105" s="2"/>
-      <c r="Y105" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM111">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14190,7 +8538,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="521">
   <si>
     <t>Path</t>
   </si>
@@ -560,8 +560,11 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+</t>
   </si>
   <si>
     <t>Medication Detail</t>
@@ -573,6 +576,24 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
   </si>
   <si>
+    <t>…code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>medicationCoded</t>
+  </si>
+  <si>
+    <t>Coded Medication</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -580,35 +601,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Medication</t>
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].id</t>
+    <t>MedicationStatement.medicationCodeableConcept.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -627,7 +626,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].extension</t>
+    <t>MedicationStatement.medicationCodeableConcept.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -642,7 +641,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -707,10 +706,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -726,13 +725,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.url</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -750,19 +749,16 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -778,7 +774,10 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.system</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -802,7 +801,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.version</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -823,7 +822,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.code</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -844,7 +843,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.display</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -865,7 +864,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.userSelected</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -902,7 +901,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].text</t>
+    <t>MedicationStatement.medicationCodeableConcept.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -926,10 +925,10 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+    <t>MedicationStatement.medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
 </t>
   </si>
   <si>
@@ -1231,6 +1230,422 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals"</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals".</t>
+  </si>
+  <si>
+    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>snomedAdditionalInstruction</t>
+  </si>
+  <si>
+    <t>SNOMED CT Additional Instruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>asNeededCoding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Reason For Take "as needed"</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.coding</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.text</t>
+  </si>
+  <si>
+    <t>snomedRoute</t>
+  </si>
+  <si>
+    <t>Route of Administration (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.text</t>
+  </si>
+  <si>
+    <t>snomedMethod</t>
+  </si>
+  <si>
+    <t>SNOMED CT Administration Method</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1388,8 +1803,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1411,10 +1826,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3534,11 +3949,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3550,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3559,16 +3976,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3594,26 +4011,28 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -3631,13 +4050,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3645,10 +4064,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3673,13 +4092,13 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3705,13 +4124,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3744,13 +4163,13 @@
         <v>183</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -5090,13 +5509,15 @@
       <c r="A34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5114,10 +5535,10 @@
         <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5126,7 +5547,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5144,29 +5565,31 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5195,17 +5618,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5217,25 +5638,29 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5253,13 +5678,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5277,7 +5702,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5295,18 +5720,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5329,20 +5754,18 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5390,7 +5813,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5408,18 +5831,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5442,18 +5865,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5501,7 +5924,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5519,18 +5942,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5553,17 +5976,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5612,7 +6035,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5630,18 +6053,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5664,17 +6087,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5723,7 +6148,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5741,20 +6166,22 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5775,19 +6202,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5812,13 +6239,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5836,13 +6261,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5854,22 +6279,20 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5890,19 +6313,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5927,11 +6350,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5949,13 +6374,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5967,26 +6392,28 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6001,20 +6428,18 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6062,10 +6487,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6077,31 +6502,29 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6116,16 +6539,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6175,10 +6598,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6190,13 +6613,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6204,7 +6627,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6227,17 +6650,15 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6286,7 +6707,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6301,13 +6722,13 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6315,7 +6736,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6335,16 +6756,16 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6395,7 +6816,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6413,10 +6834,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6424,7 +6845,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6432,7 +6853,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6444,16 +6865,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6504,10 +6925,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6516,24 +6937,24 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6541,30 +6962,32 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6613,36 +7036,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6650,31 +7073,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6700,13 +7123,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6724,13 +7147,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6739,10 +7162,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6753,7 +7176,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6761,32 +7184,30 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6811,13 +7232,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6835,25 +7256,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6862,9 +7283,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6875,10 +7296,10 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -6887,13 +7308,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6920,13 +7341,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6944,16 +7365,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -6962,7 +7383,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6973,18 +7394,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6996,15 +7417,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7041,25 +7464,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7082,11 +7505,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7102,21 +7525,23 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7152,11 +7577,9 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7164,7 +7587,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7182,20 +7605,22 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7204,7 +7629,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7219,7 +7644,7 @@
         <v>196</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>198</v>
@@ -7253,26 +7678,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>202</v>
@@ -7304,11 +7729,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7329,19 +7752,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7366,11 +7789,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7388,13 +7813,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7406,18 +7831,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7428,32 +7853,30 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7477,13 +7900,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7501,13 +7924,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7516,21 +7939,21 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7541,10 +7964,10 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7553,17 +7976,15 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7588,13 +8009,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7612,13 +8033,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7627,13 +8048,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7641,18 +8062,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7664,15 +8085,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7709,25 +8132,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7750,11 +8173,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7770,21 +8193,23 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7820,11 +8245,9 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7832,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7850,20 +8273,22 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7872,7 +8297,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7887,7 +8312,7 @@
         <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>198</v>
@@ -7921,26 +8346,26 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>202</v>
@@ -7972,11 +8397,9 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7997,19 +8420,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8034,11 +8457,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8056,13 +8481,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8074,18 +8499,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8096,7 +8521,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8105,23 +8530,21 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8169,13 +8592,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8184,21 +8607,21 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8212,7 +8635,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8221,17 +8644,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8280,7 +8701,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8295,13 +8716,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8309,7 +8730,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8317,7 +8738,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>42</v>
@@ -8332,15 +8753,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8389,7 +8812,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8398,16 +8821,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8416,9 +8839,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8426,13 +8849,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8441,17 +8864,15 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>379</v>
+        <v>185</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8500,35 +8921,5266 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>378</v>
+        <v>188</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AB90" s="2"/>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X95" s="2"/>
+      <c r="Y95" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AB100" s="2"/>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AB104" s="2"/>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X105" s="2"/>
+      <c r="Y105" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM64">
+  <autoFilter ref="A1:AM111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8538,7 +14190,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="385">
   <si>
     <t>Path</t>
   </si>
@@ -560,20 +560,33 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>Medication Detail</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the substance or product being taken.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
 </t>
   </si>
   <si>
-    <t>Medication Detail</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+    <t>closed</t>
   </si>
   <si>
     <t>…code</t>
@@ -585,29 +598,17 @@
     <t>what</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCoded</t>
+    <t>medicationCodeableConcept</t>
   </si>
   <si>
     <t>Coded Medication</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the substance or product being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.id</t>
+    <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -626,7 +627,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.extension</t>
+    <t>MedicationStatement.medication[x].extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -641,7 +642,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding</t>
+    <t>MedicationStatement.medication[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -706,10 +707,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -725,13 +726,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
+    <t>MedicationStatement.medication[x].coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -749,16 +750,19 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -774,10 +778,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
+    <t>MedicationStatement.medication[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -801,7 +802,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
+    <t>MedicationStatement.medication[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -822,7 +823,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
+    <t>MedicationStatement.medication[x].coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -843,7 +844,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
+    <t>MedicationStatement.medication[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -864,7 +865,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -901,7 +902,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.text</t>
+    <t>MedicationStatement.medication[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -925,10 +926,10 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
 </t>
   </si>
   <si>
@@ -1230,422 +1231,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals"</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals".</t>
-  </si>
-  <si>
-    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>snomedAdditionalInstruction</t>
-  </si>
-  <si>
-    <t>SNOMED CT Additional Instruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
-</t>
-  </si>
-  <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>asNeededCoding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Reason For Take "as needed"</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.text</t>
-  </si>
-  <si>
-    <t>snomedRoute</t>
-  </si>
-  <si>
-    <t>Route of Administration (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.text</t>
-  </si>
-  <si>
-    <t>snomedMethod</t>
-  </si>
-  <si>
-    <t>SNOMED CT Administration Method</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM111"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1803,8 +1388,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1826,10 +1411,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3949,13 +3534,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3967,7 +3550,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3976,16 +3559,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4011,28 +3594,26 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -4050,13 +3631,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4064,17 +3645,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -4092,13 +3673,13 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4124,13 +3705,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -4163,13 +3744,13 @@
         <v>183</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -5509,15 +5090,13 @@
       <c r="A34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5535,10 +5114,10 @@
         <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5547,7 +5126,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5565,31 +5144,29 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5618,15 +5195,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5638,29 +5217,25 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5678,13 +5253,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5702,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5720,18 +5295,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5754,18 +5329,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5813,7 +5390,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5831,18 +5408,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5865,18 +5442,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5924,7 +5501,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5942,18 +5519,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5976,17 +5553,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -6035,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6053,18 +5630,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6087,19 +5664,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6148,7 +5723,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6166,22 +5741,20 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6202,19 +5775,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6239,11 +5812,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -6261,13 +5836,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -6279,20 +5854,22 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>204</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6313,19 +5890,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6350,13 +5927,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6374,13 +5949,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6392,28 +5967,26 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6428,18 +6001,20 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6487,10 +6062,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6502,23 +6077,25 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6539,16 +6116,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6598,10 +6175,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6613,13 +6190,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6627,7 +6204,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6650,15 +6227,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6707,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6722,13 +6301,13 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6736,7 +6315,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6756,16 +6335,16 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6816,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6834,10 +6413,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6845,7 +6424,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,7 +6432,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6865,16 +6444,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6925,10 +6504,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6937,24 +6516,24 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6962,32 +6541,30 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -7036,36 +6613,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7073,31 +6650,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7123,13 +6700,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -7147,13 +6724,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -7162,10 +6739,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7176,7 +6753,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,30 +6761,32 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7232,13 +6811,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7256,36 +6835,36 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7296,10 +6875,10 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7308,13 +6887,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7341,13 +6920,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7365,16 +6944,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -7383,7 +6962,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7394,18 +6973,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7417,17 +6996,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7464,25 +7041,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7505,11 +7082,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7525,23 +7102,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7577,9 +7152,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7587,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7605,22 +7182,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7629,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7644,7 +7219,7 @@
         <v>196</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>198</v>
@@ -7678,26 +7253,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>202</v>
@@ -7729,9 +7304,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7752,19 +7329,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7789,13 +7366,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7813,13 +7388,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7831,18 +7406,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7853,30 +7428,32 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7900,13 +7477,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7924,36 +7501,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7964,10 +7541,10 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7976,15 +7553,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -8009,13 +7588,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -8033,13 +7612,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -8048,13 +7627,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -8062,18 +7641,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -8085,17 +7664,15 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -8132,25 +7709,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -8173,11 +7750,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8193,23 +7770,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8245,9 +7820,11 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8255,7 +7832,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8273,22 +7850,20 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8297,7 +7872,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -8312,7 +7887,7 @@
         <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>198</v>
@@ -8346,26 +7921,26 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>202</v>
@@ -8397,9 +7972,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8420,19 +7997,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8457,13 +8034,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8481,13 +8056,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8499,18 +8074,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8521,7 +8096,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8530,21 +8105,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>366</v>
+        <v>185</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8592,36 +8169,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8635,7 +8212,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8644,15 +8221,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8701,7 +8280,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8716,13 +8295,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8730,7 +8309,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8738,7 +8317,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>42</v>
@@ -8753,17 +8332,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8812,7 +8389,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8821,16 +8398,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8839,9 +8416,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8849,13 +8426,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8864,15 +8441,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8921,5266 +8500,35 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB90" s="2"/>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB94" s="2"/>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB100" s="2"/>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AB104" s="2"/>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X105" s="2"/>
-      <c r="Y105" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM111">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14190,7 +8538,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -391,7 +391,7 @@
     <t>Medication Generic Drug Name</t>
   </si>
   <si>
-    <t xml:space="preserve">The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept. </t>
+    <t>The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept.</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -692,10 +692,6 @@
     <t>Coded Medication</t>
   </si>
   <si>
-    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
-  </si>
-  <si>
     <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
@@ -721,8 +717,8 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t>value:system}
-value:code}</t>
+    <t xml:space="preserve">value:system}
+</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -746,6 +742,130 @@
     <t>http://hl7.org.au/fhir/ValueSet/pbs-item</t>
   </si>
   <si>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://pbs.gov.au/code/item</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>gtin</t>
   </si>
   <si>
@@ -765,12 +885,6 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -825,132 +939,13 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org.au/fhir/CodeSystem/medication-type"/&gt;
-  &lt;code value="BPG"/&gt;
-  &lt;display value="Branded package with no container"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>Medication Type</t>
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>mimsPackage</t>
@@ -960,6 +955,9 @@
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
+  </si>
+  <si>
+    <t>http://www.mims.com.au/codes</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].text</t>
@@ -1145,10 +1143,7 @@
     <t>A code indicating why the medication was not taken.</t>
   </si>
   <si>
-    <t>A coded concept indicating the reason why the medication was not taken</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-taken-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-not-taken-1</t>
   </si>
   <si>
     <t xml:space="preserve">mst-1
@@ -1158,34 +1153,6 @@
     <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not taken"].value</t>
   </si>
   <si>
-    <t>MedicationStatement.reasonNotTaken.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedReasonNotTaken</t>
-  </si>
-  <si>
-    <t>Reason Not Taken (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-not-taken-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.text</t>
-  </si>
-  <si>
     <t>MedicationStatement.reasonCode</t>
   </si>
   <si>
@@ -1198,10 +1165,7 @@
     <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonForUseReference.</t>
   </si>
   <si>
-    <t>A coded concept identifying why the medication is being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-taken-1</t>
   </si>
   <si>
     <t>…reasoneCodeableConcept</t>
@@ -1211,27 +1175,6 @@
   </si>
   <si>
     <t>why</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>snomedReasonCode</t>
-  </si>
-  <si>
-    <t>Reason For Medication (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-taken-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.text</t>
   </si>
   <si>
     <t>MedicationStatement.reasonReference</t>
@@ -1444,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2510,7 +2453,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2621,7 +2564,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2732,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -4359,7 +4302,7 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>206</v>
@@ -4376,7 +4319,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4485,7 +4428,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4596,7 +4539,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4619,19 +4562,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4668,7 +4611,7 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
@@ -4678,7 +4621,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4696,21 +4639,21 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -4732,19 +4675,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="M30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4769,11 +4712,11 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4791,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4809,22 +4752,20 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4833,7 +4774,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4842,23 +4783,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4882,11 +4819,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4904,13 +4843,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4922,24 +4861,22 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4955,23 +4892,21 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4995,29 +4930,31 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5035,18 +4972,18 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5054,7 +4991,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
@@ -5066,25 +5003,29 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5126,7 +5067,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5144,18 +5085,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5166,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5175,18 +5116,20 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5223,25 +5166,25 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5253,22 +5196,20 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5286,19 +5227,21 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5346,13 +5289,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5364,18 +5307,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5395,19 +5338,21 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5455,7 +5400,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5473,29 +5418,29 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5504,21 +5449,23 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5554,25 +5501,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5584,29 +5531,31 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5615,27 +5564,29 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>40</v>
@@ -5653,13 +5604,11 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5677,13 +5626,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5695,18 +5644,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5729,13 +5678,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5774,17 +5723,19 @@
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5802,7 +5753,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5813,20 +5764,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5838,22 +5787,24 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>40</v>
@@ -5871,37 +5822,37 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5913,7 +5864,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5924,7 +5875,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5932,7 +5883,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
@@ -5950,23 +5901,23 @@
         <v>64</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>40</v>
@@ -6008,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6026,18 +5977,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6063,13 +6014,13 @@
         <v>150</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6119,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6137,18 +6088,18 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6174,14 +6125,14 @@
         <v>70</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6230,7 +6181,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6248,18 +6199,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6285,14 +6236,14 @@
         <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6341,7 +6292,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6359,18 +6310,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6393,19 +6344,19 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6454,7 +6405,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6472,21 +6423,21 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>40</v>
@@ -6496,7 +6447,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6508,19 +6459,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6545,11 +6496,11 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6567,7 +6518,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6585,18 +6536,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6616,23 +6567,19 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6680,7 +6627,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6698,53 +6645,49 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6781,25 +6724,25 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6808,13 +6751,13 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6822,9 +6765,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6845,13 +6790,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6902,13 +6847,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6920,7 +6865,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6931,18 +6876,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6954,17 +6899,15 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7001,25 +6944,25 @@
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7042,18 +6985,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7062,19 +7005,19 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7112,28 +7055,28 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
@@ -7142,7 +7085,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7153,7 +7096,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7161,7 +7104,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7173,19 +7116,19 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7193,7 +7136,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -7235,10 +7178,10 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>51</v>
@@ -7253,7 +7196,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7264,7 +7207,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7284,20 +7227,18 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7334,19 +7275,17 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7373,42 +7312,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7433,13 +7372,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7457,7 +7396,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7472,21 +7411,21 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7494,13 +7433,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7509,22 +7448,26 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7566,7 +7509,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7584,18 +7527,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7609,24 +7552,26 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7675,7 +7620,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7693,18 +7638,18 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7712,13 +7657,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -7727,16 +7672,18 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7784,10 +7731,10 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>51</v>
@@ -7799,21 +7746,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7824,7 +7771,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7833,21 +7780,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7895,13 +7842,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7913,18 +7860,18 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7932,33 +7879,35 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7982,13 +7931,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -8006,10 +7955,10 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>51</v>
@@ -8021,23 +7970,25 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8046,28 +7997,32 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8091,13 +8046,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8115,7 +8068,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8124,7 +8077,7 @@
         <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
@@ -8133,18 +8086,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>227</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8253,7 +8206,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8364,7 +8317,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>229</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8372,10 +8325,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8387,26 +8340,26 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
@@ -8436,23 +8389,25 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AB63" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8464,22 +8419,20 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8500,20 +8453,18 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8537,11 +8488,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8559,13 +8512,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8577,18 +8530,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8611,19 +8564,17 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8672,7 +8623,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8690,18 +8641,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>305</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8712,30 +8663,30 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8759,13 +8710,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8783,13 +8734,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8798,21 +8749,21 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8832,19 +8783,23 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8892,7 +8847,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8910,29 +8865,29 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8941,21 +8896,23 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8991,25 +8948,25 @@
         <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -9021,32 +8978,34 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9055,20 +9014,18 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9104,23 +9061,25 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9129,25 +9088,23 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9165,23 +9122,19 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9205,11 +9158,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9227,13 +9182,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9245,29 +9200,29 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>385</v>
+        <v>212</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9276,23 +9231,21 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9328,25 +9281,25 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9358,18 +9311,18 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9377,10 +9330,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9389,19 +9342,19 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>387</v>
+        <v>150</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9451,36 +9404,36 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>386</v>
+        <v>164</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9491,27 +9444,29 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>394</v>
+        <v>123</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9560,13 +9515,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>393</v>
+        <v>170</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9575,10 +9530,10 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9587,9 +9542,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9597,31 +9552,31 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9671,35 +9626,1242 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>399</v>
+        <v>176</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH74" t="s" s="2">
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X81" s="2"/>
+      <c r="Y81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X82" s="2"/>
+      <c r="Y82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AI74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AI85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM74">
+  <autoFilter ref="A1:AM85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9709,7 +10871,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="374">
   <si>
     <t>Path</t>
   </si>
@@ -898,51 +898,6 @@
   </si>
   <si>
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>Medication Type</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -1387,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1396,7 +1351,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.05859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6876,7 +6831,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6884,7 +6839,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6896,25 +6851,29 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -6956,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6974,29 +6933,29 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7005,19 +6964,19 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7055,25 +7014,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7085,18 +7044,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7104,7 +7063,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7116,27 +7075,27 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -7178,10 +7137,10 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>51</v>
@@ -7196,18 +7155,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7227,19 +7186,21 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7275,17 +7236,19 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7303,28 +7266,26 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
@@ -7336,19 +7297,23 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7372,13 +7337,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7396,7 +7361,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7414,26 +7379,28 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7448,26 +7415,26 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7485,13 +7452,11 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7509,13 +7474,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7527,18 +7492,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7558,20 +7523,18 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7620,7 +7583,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7638,29 +7601,29 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7669,21 +7632,21 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7719,25 +7682,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7749,18 +7712,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7768,7 +7731,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>51</v>
@@ -7783,24 +7746,26 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -7842,7 +7807,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7860,18 +7825,18 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7894,20 +7859,18 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7955,7 +7918,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7973,22 +7936,20 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8009,19 +7970,17 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8046,11 +8005,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8068,13 +8029,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8086,18 +8047,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8117,19 +8078,21 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8177,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8195,29 +8158,29 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8226,21 +8189,23 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8276,25 +8241,25 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8306,18 +8271,18 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8325,7 +8290,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
@@ -8340,26 +8305,26 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
@@ -8401,7 +8366,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8419,32 +8384,34 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8453,16 +8420,16 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8512,10 +8479,10 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>51</v>
@@ -8527,21 +8494,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8561,21 +8528,19 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8623,7 +8588,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8641,29 +8606,29 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8672,21 +8637,21 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8722,25 +8687,25 @@
         <v>40</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8752,18 +8717,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8771,7 +8736,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>51</v>
@@ -8786,20 +8751,18 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8847,7 +8810,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8856,7 +8819,7 @@
         <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
@@ -8865,18 +8828,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8899,20 +8862,18 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8960,7 +8921,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8978,34 +8939,32 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9014,16 +8973,16 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9073,10 +9032,10 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>51</v>
@@ -9088,21 +9047,21 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9116,24 +9075,26 @@
         <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9182,7 +9143,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9197,54 +9158,52 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9281,25 +9240,25 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9311,18 +9270,18 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9330,32 +9289,30 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9404,7 +9361,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9413,7 +9370,7 @@
         <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
@@ -9422,18 +9379,18 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>94</v>
+        <v>316</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9441,13 +9398,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -9456,17 +9413,15 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9515,10 +9470,10 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>51</v>
@@ -9530,21 +9485,21 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9555,7 +9510,7 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9564,19 +9519,19 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9626,13 +9581,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9644,7 +9599,7 @@
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>331</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9655,7 +9610,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9663,7 +9618,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>51</v>
@@ -9672,22 +9627,22 @@
         <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9713,13 +9668,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9737,10 +9692,10 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>51</v>
@@ -9752,13 +9707,13 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -9766,7 +9721,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9777,7 +9732,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>52</v>
@@ -9786,16 +9741,16 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9822,13 +9777,11 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9846,16 +9799,16 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
@@ -9864,10 +9817,10 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -9875,7 +9828,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9886,7 +9839,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>52</v>
@@ -9898,15 +9851,17 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>328</v>
+        <v>188</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9931,13 +9886,11 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -9955,13 +9908,13 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -9970,21 +9923,21 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9992,30 +9945,32 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10064,13 +10019,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10079,21 +10034,21 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10107,7 +10062,7 @@
         <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
@@ -10116,17 +10071,15 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10175,7 +10128,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10190,10 +10143,10 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10204,7 +10157,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10215,28 +10168,28 @@
         <v>51</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>70</v>
+        <v>368</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10262,13 +10215,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10286,582 +10239,35 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X81" s="2"/>
-      <c r="Y81" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X82" s="2"/>
-      <c r="Y82" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM85">
+  <autoFilter ref="A1:AM80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10871,7 +10277,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -648,8 +648,8 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>Medication Detail</t>
@@ -659,15 +659,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the substance or product being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -686,16 +677,44 @@
     <t>what</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+</t>
+  </si>
+  <si>
+    <t>Medication Reference</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].reference</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].identifier</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].display</t>
+  </si>
+  <si>
     <t>medicationCodeableConcept</t>
   </si>
   <si>
     <t>Coded Medication</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].extension</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the substance or product being taken.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].coding</t>
@@ -937,25 +956,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
-</t>
-  </si>
-  <si>
-    <t>Medication Reference</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].reference</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].identifier</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].display</t>
   </si>
   <si>
     <t>MedicationStatement.effective[x]</t>
@@ -4110,26 +4110,26 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>196</v>
@@ -4147,37 +4147,37 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>196</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4186,10 +4186,10 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>199</v>
@@ -4221,13 +4221,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4260,13 +4260,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4494,7 +4494,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4502,10 +4502,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4517,20 +4517,18 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4566,26 +4564,28 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
@@ -4594,22 +4594,20 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4630,20 +4628,18 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4667,11 +4663,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4689,13 +4687,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4707,18 +4705,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4738,18 +4736,20 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4798,7 +4798,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4816,7 +4816,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4827,18 +4827,20 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C32" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4847,19 +4849,19 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4885,37 +4887,37 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4924,13 +4926,13 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4938,7 +4940,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4946,7 +4948,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
@@ -4958,29 +4960,25 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5022,7 +5020,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5040,29 +5038,29 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5071,19 +5069,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5121,25 +5119,25 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5151,18 +5149,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5173,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5185,17 +5183,19 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5232,25 +5232,23 @@
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5262,20 +5260,22 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5296,17 +5296,19 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5331,13 +5333,11 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5355,13 +5355,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5373,18 +5373,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5404,23 +5404,19 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5468,7 +5464,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5486,24 +5482,22 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5519,23 +5513,21 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5559,29 +5551,31 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5599,18 +5593,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5618,7 +5612,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5630,25 +5624,29 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5690,7 +5688,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5708,29 +5706,29 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5739,19 +5737,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5789,25 +5787,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5819,18 +5817,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5838,7 +5836,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
@@ -5853,26 +5851,24 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>40</v>
@@ -5914,7 +5910,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5932,18 +5928,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5969,15 +5965,15 @@
         <v>150</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6043,18 +6039,18 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6077,17 +6073,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6136,7 +6134,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6154,20 +6152,22 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6188,17 +6188,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6223,13 +6225,11 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6247,13 +6247,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6265,18 +6265,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6296,23 +6296,19 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6378,24 +6374,22 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6411,23 +6405,21 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6451,29 +6443,31 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6491,18 +6485,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6510,7 +6504,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6522,25 +6516,29 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
@@ -6582,7 +6580,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6600,18 +6598,18 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6622,7 +6620,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6631,18 +6629,20 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6679,25 +6679,25 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6709,22 +6709,20 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6742,19 +6740,21 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6802,13 +6802,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6820,18 +6820,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6854,26 +6854,24 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -6915,7 +6913,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6933,18 +6931,18 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6967,18 +6965,20 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7044,20 +7044,22 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7078,17 +7080,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7113,13 +7117,11 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7137,13 +7139,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7155,18 +7157,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7186,21 +7188,19 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7266,18 +7266,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7288,7 +7288,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7297,23 +7297,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7349,25 +7345,25 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7379,21 +7375,21 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>40</v>
@@ -7412,23 +7408,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7452,11 +7444,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7474,7 +7468,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7492,18 +7486,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7511,7 +7505,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7523,25 +7517,29 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -7583,7 +7581,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7601,29 +7599,29 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7632,19 +7630,19 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7682,25 +7680,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7712,18 +7710,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7731,7 +7729,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>51</v>
@@ -7746,26 +7744,24 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -7807,7 +7803,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7825,18 +7821,18 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7862,15 +7858,15 @@
         <v>150</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7936,18 +7932,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7970,17 +7966,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8029,7 +8027,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8047,20 +8045,22 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8081,17 +8081,19 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8116,13 +8118,11 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8140,13 +8140,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8158,18 +8158,18 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8189,23 +8189,19 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8253,7 +8249,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8271,29 +8267,29 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8302,23 +8298,21 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8354,25 +8348,25 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8384,22 +8378,20 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8411,7 +8403,7 @@
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8420,24 +8412,26 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8479,10 +8473,10 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>51</v>
@@ -8494,21 +8488,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8528,18 +8522,20 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8588,7 +8584,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8606,29 +8602,29 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8637,21 +8633,21 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8687,25 +8683,25 @@
         <v>40</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8717,18 +8713,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8736,7 +8732,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>51</v>
@@ -8754,15 +8750,15 @@
         <v>150</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8819,7 +8815,7 @@
         <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
@@ -8828,18 +8824,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8862,18 +8858,20 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8939,18 +8937,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8976,15 +8974,17 @@
         <v>150</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9050,13 +9050,13 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70">

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -167,7 +167,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mst-1:Reason not taken is only permitted if Taken is No {reasonNotTaken.exists().not() or (taken = 'n')}inv-dh-mst-02:If present, an information source shall at least have a reference, an identifier or a display {informationSource.exists() implies informationSource.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-mst-03:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mst-1:Reason not taken is only permitted if Taken is No {reasonNotTaken.exists().not() or (taken = 'n')}inv-dh-mst-02:If present, an information source shall at least have a reference, an identifier or a display {informationSource.exists() implies informationSource.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-mst-03:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-mst-04:If status is active or intended, then dosage shall be provided {(status='active' or status='intended') implies dosage.exists()}</t>
   </si>
   <si>
     <t>..Event</t>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>42</v>

--- a/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
+++ b/output/SharedMedicinesList/medicationstatement-detailed-1.xlsx
@@ -1190,7 +1190,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-mst-01:The dosage shall at least have text or patient instructions {text.exists() or patientInstruction.exists()}</t>
+inv-dh-mst-01:If present, the dosage shall at least have text or patient instructions {text.exists() or patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
